--- a/media/uploads/payroll_listing_albert.xlsx
+++ b/media/uploads/payroll_listing_albert.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\accas\Desktop\My_task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseemmubasher/Dropbox/ByteTeck Consulting Inc/DEVELOPMENT PROJECTS/AA_AUTOMATION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55139803-F7F2-4718-9A64-162DDDE37F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26DD64-73A8-DB4A-81FD-17D8AEDC119B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="880" windowWidth="32060" windowHeight="18780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet2!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Payroll Listing</t>
   </si>
@@ -277,6 +279,45 @@
   </si>
   <si>
     <t>Yuvraj Kaler</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Scheduled Hours: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Payroll Hours: </t>
+    </r>
+  </si>
+  <si>
+    <t>Contract - Cheque</t>
+  </si>
+  <si>
+    <t>Emp Num</t>
   </si>
 </sst>
 </file>
@@ -639,6 +680,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>141376</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -928,43 +1012,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R13" sqref="R13:U26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.140625" customWidth="1"/>
+    <col min="1" max="1" width="0.1640625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="0.140625" customWidth="1"/>
+    <col min="3" max="4" width="0.1640625" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="13" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" customWidth="1"/>
+    <col min="12" max="13" width="7.33203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="0.7109375" customWidth="1"/>
-    <col min="16" max="16" width="0.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="0.83203125" customWidth="1"/>
+    <col min="16" max="16" width="0.1640625" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="0.140625" customWidth="1"/>
+    <col min="21" max="21" width="0.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="12.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="12.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1070,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1009,8 +1093,8 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="2:21" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1030,8 +1114,8 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:21" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:21" ht="15" x14ac:dyDescent="0.2">
       <c r="P8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1123,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="15" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1052,14 +1136,14 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" ht="15" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1081,8 +1165,8 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:21" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:21" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:21" ht="31" x14ac:dyDescent="0.2">
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1200,7 @@
       <c r="T13" s="10"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F14" s="2">
         <v>1</v>
       </c>
@@ -1143,14 +1227,12 @@
       <c r="Q14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="11"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="15"/>
+    </row>
+    <row r="15" spans="2:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F15" s="2">
         <v>2</v>
       </c>
@@ -1177,14 +1259,12 @@
       <c r="Q15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="11"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="15"/>
+    </row>
+    <row r="16" spans="2:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F16" s="2">
         <v>3</v>
       </c>
@@ -1211,14 +1291,12 @@
       <c r="Q16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="11"/>
-    </row>
-    <row r="17" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15"/>
+    </row>
+    <row r="17" spans="6:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F17" s="2">
         <v>4</v>
       </c>
@@ -1245,14 +1323,12 @@
       <c r="Q17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="11"/>
-    </row>
-    <row r="18" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="15"/>
+    </row>
+    <row r="18" spans="6:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -1279,14 +1355,12 @@
       <c r="Q18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="11"/>
-    </row>
-    <row r="19" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="15"/>
+    </row>
+    <row r="19" spans="6:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F19" s="2">
         <v>6</v>
       </c>
@@ -1313,14 +1387,12 @@
       <c r="Q19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="11"/>
-    </row>
-    <row r="20" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="15"/>
+    </row>
+    <row r="20" spans="6:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F20" s="2">
         <v>7</v>
       </c>
@@ -1347,14 +1419,12 @@
       <c r="Q20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="11"/>
-    </row>
-    <row r="21" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="R20" s="13"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="15"/>
+    </row>
+    <row r="21" spans="6:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F21" s="2">
         <v>8</v>
       </c>
@@ -1381,14 +1451,12 @@
       <c r="Q21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="11"/>
-    </row>
-    <row r="22" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="R21" s="13"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
+    </row>
+    <row r="22" spans="6:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F22" s="2">
         <v>9</v>
       </c>
@@ -1415,14 +1483,12 @@
       <c r="Q22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="11"/>
-    </row>
-    <row r="23" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="R22" s="13"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="15"/>
+    </row>
+    <row r="23" spans="6:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F23" s="2">
         <v>10</v>
       </c>
@@ -1449,14 +1515,12 @@
       <c r="Q23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="11"/>
-    </row>
-    <row r="24" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="R23" s="13"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="15"/>
+    </row>
+    <row r="24" spans="6:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F24" s="2">
         <v>11</v>
       </c>
@@ -1483,14 +1547,12 @@
       <c r="Q24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="11"/>
-    </row>
-    <row r="25" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="R24" s="13"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="15"/>
+    </row>
+    <row r="25" spans="6:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F25" s="2">
         <v>12</v>
       </c>
@@ -1517,14 +1579,12 @@
       <c r="Q25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="11"/>
-    </row>
-    <row r="26" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="R25" s="13"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="15"/>
+    </row>
+    <row r="26" spans="6:21" ht="15" x14ac:dyDescent="0.2">
       <c r="F26" s="2">
         <v>13</v>
       </c>
@@ -1551,14 +1611,12 @@
       <c r="Q26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="11"/>
-    </row>
-    <row r="27" spans="6:21" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="15"/>
+    </row>
+    <row r="27" spans="6:21" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="52">
     <mergeCell ref="G25:J25"/>
@@ -1621,4 +1679,207 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:U13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.1640625" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="0.1640625" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="0.1640625" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="0.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="12.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="2:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="P6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="2:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="D7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="P7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="2:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="2:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="2:21" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:21" ht="31" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" spans="2:21" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:21" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D7:H8"/>
+    <mergeCell ref="P7:S8"/>
+    <mergeCell ref="J8:N9"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="C4:U4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P6:S6"/>
+  </mergeCells>
+  <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.55000000000000004" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;10 Feb 13 2025  2:30PM &amp;R&amp;"Tahoma,Regular"&amp;10Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>